--- a/medicine/Psychotrope/Sato_(boisson)/Sato_(boisson).xlsx
+++ b/medicine/Psychotrope/Sato_(boisson)/Sato_(boisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sato (en thaï : สาโท) ou lao hai (เหล้าไห) est une boisson alcoolique traditionnelle produite en Thaïlande, plus particulièrement dans le Nord-Est du pays (Isan)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sato (en thaï : สาโท) ou lao hai (เหล้าไห) est une boisson alcoolique traditionnelle produite en Thaïlande, plus particulièrement dans le Nord-Est du pays (Isan).
 Cette boisson est aussi appelée alcool de riz ou Rice Wine (« vin de riz ») par les Anglo-Saxons car elle est obtenue par fermentation du riz dans de grandes jarres, mais en fait il s'agit d'un type de bière, mais sans gaz. Sa production est ancestrale et certains archéologues du XIXe siècle ont même émis l'hypothèse aventureuse que les jarres de pierre de la plaine des jarres au Laos auraient servi à sa production.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Fabrication et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sato est obtenu à partir de :
 riz gluant (thaï : ข้าวเหนียว )
@@ -548,9 +562,11 @@
           <t>Renouveau du sato</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sato était resté longtemps une boisson traditionnelle du pays Isaan, mais depuis les années 2000 et sous l'impulsion du programme de promotion des produits régionaux, One Tambon One Product (OTOP)[2], une idée du premier ministre Thaksin Shinawatra, le sato a été plus largement distribué dans toute la Thaïlande à la faveur de foires et de manifestations régionales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sato était resté longtemps une boisson traditionnelle du pays Isaan, mais depuis les années 2000 et sous l'impulsion du programme de promotion des produits régionaux, One Tambon One Product (OTOP), une idée du premier ministre Thaksin Shinawatra, le sato a été plus largement distribué dans toute la Thaïlande à la faveur de foires et de manifestations régionales.
 La forte pression touristique permis à ce produit traditionnel de devenir une curiosité prisée par les expatriés et les touristes de passage. Une recette plus sucrée, sous la marque Siam Sato est alors distribuée dans les chaînes de magasin comme Seven-Eleven.
 </t>
         </is>
